--- a/artfynd/A 18631-2022.xlsx
+++ b/artfynd/A 18631-2022.xlsx
@@ -680,14 +680,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>101558408</v>
+        <v>107569721</v>
       </c>
       <c r="B2" t="n">
-        <v>56395</v>
+        <v>77259</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -696,46 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>bo, ägg/ungar</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>O Lilla Brassberget, Brassberget, Ramsjö, Hls</t>
+          <t>Brassberget, Hls</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>538701.0015197303</v>
+        <v>538177.4376702965</v>
       </c>
       <c r="R2" t="n">
-        <v>6897265.578997525</v>
+        <v>6897315.142657178</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -762,27 +750,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Adult som varnar intensivt alldeles intill ett nyupphackat hål i asp som står i vägkanten (NO om vägen). Passerade platsen två gånger under dagen och varnande på samma ställe både gångerna. Tyder på häckning. Inget tiggläte hördes.</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,26 +780,26 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Helena Persson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Helena Persson, Cecilia Lindén</t>
+          <t>Isak Vahlström, Aron Dynesius</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>107569727</v>
+        <v>101558408</v>
       </c>
       <c r="B3" t="n">
-        <v>78569</v>
+        <v>56395</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -825,34 +808,46 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>bo, ägg/ungar</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Brassberget, Hls</t>
+          <t>O Lilla Brassberget, Brassberget, Ramsjö, Hls</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>538666.4771051508</v>
+        <v>538701.0015197303</v>
       </c>
       <c r="R3" t="n">
-        <v>6897219.445653901</v>
+        <v>6897265.578997525</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -879,22 +874,27 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Adult som varnar intensivt alldeles intill ett nyupphackat hål i asp som står i vägkanten (NO om vägen). Passerade platsen två gånger under dagen och varnande på samma ställe både gångerna. Tyder på häckning. Inget tiggläte hördes.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -909,22 +909,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Helena Persson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Aron Dynesius</t>
+          <t>Helena Persson, Cecilia Lindén</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>107569723</v>
+        <v>107569727</v>
       </c>
       <c r="B4" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -937,39 +937,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Brassberget, Hls</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>538700.9640000251</v>
+        <v>538666.4771051508</v>
       </c>
       <c r="R4" t="n">
-        <v>6897268.845469266</v>
+        <v>6897219.445653901</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1001,7 +996,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1011,7 +1006,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1038,10 +1033,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>107569712</v>
+        <v>107569723</v>
       </c>
       <c r="B5" t="n">
-        <v>89376</v>
+        <v>56395</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1050,38 +1045,43 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4660</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rävticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Inocutis rheades</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Pers.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Brassberget, Hls</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>538885.9762778704</v>
+        <v>538700.9640000251</v>
       </c>
       <c r="R5" t="n">
-        <v>6896870.056123183</v>
+        <v>6897268.845469266</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1384,10 +1384,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>107569721</v>
+        <v>107569733</v>
       </c>
       <c r="B8" t="n">
-        <v>77259</v>
+        <v>76909</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1400,21 +1400,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>228912</v>
+        <v>6437</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1424,10 +1424,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>538177.4376702965</v>
+        <v>538719.2812472982</v>
       </c>
       <c r="R8" t="n">
-        <v>6897315.142657178</v>
+        <v>6897017.028415164</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>16:14</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>16:14</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1496,10 +1496,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>107569733</v>
+        <v>107569726</v>
       </c>
       <c r="B9" t="n">
-        <v>76909</v>
+        <v>78569</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1512,21 +1512,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6437</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>538719.2812472982</v>
+        <v>538663.683839104</v>
       </c>
       <c r="R9" t="n">
-        <v>6897017.028415164</v>
+        <v>6897218.480186098</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>16:14</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>16:14</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1608,10 +1608,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>107569726</v>
+        <v>107569712</v>
       </c>
       <c r="B10" t="n">
-        <v>78569</v>
+        <v>89376</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1620,25 +1620,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>4660</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rävticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Inocutis rheades</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Pers.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>538663.683839104</v>
+        <v>538885.9762778704</v>
       </c>
       <c r="R10" t="n">
-        <v>6897218.480186098</v>
+        <v>6896870.056123183</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 18631-2022.xlsx
+++ b/artfynd/A 18631-2022.xlsx
@@ -680,14 +680,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>107569721</v>
+        <v>101558408</v>
       </c>
       <c r="B2" t="n">
-        <v>77259</v>
+        <v>56395</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -696,34 +696,46 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>bo, ägg/ungar</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Brassberget, Hls</t>
+          <t>O Lilla Brassberget, Brassberget, Ramsjö, Hls</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>538177.4376702965</v>
+        <v>538701.0015197303</v>
       </c>
       <c r="R2" t="n">
-        <v>6897315.142657178</v>
+        <v>6897265.578997525</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -750,22 +762,27 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Adult som varnar intensivt alldeles intill ett nyupphackat hål i asp som står i vägkanten (NO om vägen). Passerade platsen två gånger under dagen och varnande på samma ställe både gångerna. Tyder på häckning. Inget tiggläte hördes.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -780,26 +797,26 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Helena Persson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Aron Dynesius</t>
+          <t>Helena Persson, Cecilia Lindén</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>101558408</v>
+        <v>107569727</v>
       </c>
       <c r="B3" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -808,46 +825,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>bo, ägg/ungar</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>O Lilla Brassberget, Brassberget, Ramsjö, Hls</t>
+          <t>Brassberget, Hls</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>538701.0015197303</v>
+        <v>538666.4771051508</v>
       </c>
       <c r="R3" t="n">
-        <v>6897265.578997525</v>
+        <v>6897219.445653901</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -874,27 +879,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Adult som varnar intensivt alldeles intill ett nyupphackat hål i asp som står i vägkanten (NO om vägen). Passerade platsen två gånger under dagen och varnande på samma ställe både gångerna. Tyder på häckning. Inget tiggläte hördes.</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -909,22 +909,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Helena Persson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Helena Persson, Cecilia Lindén</t>
+          <t>Isak Vahlström, Aron Dynesius</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>107569727</v>
+        <v>107569723</v>
       </c>
       <c r="B4" t="n">
-        <v>78569</v>
+        <v>56395</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -937,34 +937,39 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Brassberget, Hls</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>538666.4771051508</v>
+        <v>538700.9640000251</v>
       </c>
       <c r="R4" t="n">
-        <v>6897219.445653901</v>
+        <v>6897268.845469266</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -996,7 +1001,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1006,7 +1011,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1033,10 +1038,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>107569723</v>
+        <v>107569712</v>
       </c>
       <c r="B5" t="n">
-        <v>56395</v>
+        <v>89376</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1045,43 +1050,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>4660</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rävticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Inocutis rheades</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Brassberget, Hls</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>538700.9640000251</v>
+        <v>538885.9762778704</v>
       </c>
       <c r="R5" t="n">
-        <v>6897268.845469266</v>
+        <v>6896870.056123183</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1384,10 +1384,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>107569733</v>
+        <v>107569721</v>
       </c>
       <c r="B8" t="n">
-        <v>76909</v>
+        <v>77259</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1400,21 +1400,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6437</v>
+        <v>228912</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1424,10 +1424,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>538719.2812472982</v>
+        <v>538177.4376702965</v>
       </c>
       <c r="R8" t="n">
-        <v>6897017.028415164</v>
+        <v>6897315.142657178</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:14</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:14</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1496,10 +1496,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>107569726</v>
+        <v>107569733</v>
       </c>
       <c r="B9" t="n">
-        <v>78569</v>
+        <v>76909</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1512,21 +1512,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>6437</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>538663.683839104</v>
+        <v>538719.2812472982</v>
       </c>
       <c r="R9" t="n">
-        <v>6897218.480186098</v>
+        <v>6897017.028415164</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>16:14</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>16:14</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1608,10 +1608,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>107569712</v>
+        <v>107569726</v>
       </c>
       <c r="B10" t="n">
-        <v>89376</v>
+        <v>78569</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1620,25 +1620,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4660</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rävticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Inocutis rheades</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Pers.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>538885.9762778704</v>
+        <v>538663.683839104</v>
       </c>
       <c r="R10" t="n">
-        <v>6896870.056123183</v>
+        <v>6897218.480186098</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AD10" t="b">
